--- a/dist/main/trabajos_database.xlsx
+++ b/dist/main/trabajos_database.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Trabajos" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Vales" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Empleados" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,58 +471,6 @@
       <c r="J1" t="inlineStr">
         <is>
           <t>Ruta Imagen</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>11212311B7BD27</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>barcode</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>C:\Users\nicor\Desktop\Nueva carpeta\DriverQRLector\dist\main\codes\barcode_11212311B7BD27.png</t>
         </is>
       </c>
     </row>
@@ -606,77 +553,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Cedula</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Celular</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Correo</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>EmpleadoId</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Juan Pérez (Ejemplo)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1234567890</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3001234567</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>juan@example.com</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>E001</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>